--- a/supplement/wgsimWholeSamplesLowAbundance.xlsx
+++ b/supplement/wgsimWholeSamplesLowAbundance.xlsx
@@ -1494,10 +1494,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1516,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1527,10 +1527,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1538,10 +1538,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1549,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1560,10 +1560,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1582,10 +1582,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1593,10 +1593,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1604,10 +1604,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1615,10 +1615,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1626,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1637,10 +1637,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
